--- a/Config/Buff/buff_ct.xlsx
+++ b/Config/Buff/buff_ct.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowHeight="18360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="buff_ct" sheetId="1" r:id="rId1"/>
+    <sheet name="effect_ct" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>吸血</t>
+  </si>
+  <si>
+    <t>effect_name</t>
+  </si>
+  <si>
+    <t>effect_val</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1589,4 +1596,69 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="74.625" customWidth="1"/>
+    <col min="3" max="3" width="82.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>